--- a/data_year/zb/固定资产投资和房地产/按构成和建设性质分固定资产投资(不含农户)增长情况.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按构成和建设性质分固定资产投资(不含农户)增长情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,31 @@
         <v>-7.1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
